--- a/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Intermediate_v1.0_EN.xlsx
+++ b/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Intermediate_v1.0_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -986,9 +986,6 @@
     <t>MinhPTSE02300</t>
   </si>
   <si>
-    <t>15/7/2014</t>
-  </si>
-  <si>
     <t>UJD_VN_Software requirement specification_v1.0</t>
   </si>
   <si>
@@ -1106,6 +1103,9 @@
   </si>
   <si>
     <t>Intermediate's screen</t>
+  </si>
+  <si>
+    <t>16/6/2014</t>
   </si>
 </sst>
 </file>
@@ -3123,6 +3123,27 @@
     <xf numFmtId="0" fontId="65" fillId="36" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3141,26 +3162,8 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="42" xfId="198" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3179,9 +3182,6 @@
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="43" xfId="198" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6319,8 +6319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6339,14 +6339,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="114"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="108"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6361,12 +6361,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6378,12 +6378,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="109" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6392,28 +6392,28 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="117" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
+      <c r="C6" s="111" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="116"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6436,10 +6436,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="111" t="s">
+      <c r="C9" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="112"/>
+      <c r="D9" s="106"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6455,12 +6455,12 @@
     </row>
     <row r="10" spans="1:8" s="21" customFormat="1" ht="25.5">
       <c r="B10" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="107" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="108"/>
+      <c r="D10" s="115"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6469,13 +6469,13 @@
         <v>16</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="108"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="115"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6483,8 +6483,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="110"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="117"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6492,8 +6492,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="108"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6501,8 +6501,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="108"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6510,8 +6510,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="108"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="115"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6519,8 +6519,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="106"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="113"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6528,12 +6528,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6541,6 +6535,12 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6620,56 +6620,56 @@
       <c r="L3" s="37"/>
     </row>
     <row r="4" spans="1:12" s="40" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="124" t="s">
+      <c r="D4" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="124" t="s">
+      <c r="E4" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="124" t="s">
+      <c r="F4" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="124" t="s">
+      <c r="G4" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="124" t="s">
+      <c r="H4" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="124" t="s">
+      <c r="I4" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="124" t="s">
+      <c r="J4" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="124" t="s">
+      <c r="K4" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="124" t="s">
+      <c r="L4" s="118" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="40" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A5" s="124"/>
-      <c r="B5" s="124"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
+      <c r="A5" s="118"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
       <c r="I5" s="125"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
     </row>
     <row r="6" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A6" s="41"/>
@@ -6678,7 +6678,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -6750,7 +6750,7 @@
         <v>38</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="44" customFormat="1" ht="54">
@@ -6778,20 +6778,20 @@
         <v>41</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1" ht="54">
       <c r="A11" s="47"/>
       <c r="B11" s="48"/>
       <c r="C11" s="49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="56"/>
       <c r="F11" s="56"/>
       <c r="G11" s="56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H11" s="49" t="s">
         <v>35</v>
@@ -6806,7 +6806,7 @@
         <v>41</v>
       </c>
       <c r="L11" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="44" customFormat="1">
@@ -6833,7 +6833,7 @@
       <c r="C13" s="100"/>
       <c r="D13" s="101"/>
       <c r="E13" s="104" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F13" s="102"/>
       <c r="G13" s="102"/>
@@ -6852,7 +6852,7 @@
       <c r="D14" s="60"/>
       <c r="E14" s="61"/>
       <c r="F14" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G14" s="52"/>
       <c r="H14" s="52"/>
@@ -6871,7 +6871,7 @@
       <c r="E15" s="56"/>
       <c r="F15" s="62"/>
       <c r="G15" s="62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H15" s="49" t="s">
         <v>35</v>
@@ -6883,10 +6883,10 @@
         <v>37</v>
       </c>
       <c r="K15" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" s="62" t="s">
         <v>144</v>
-      </c>
-      <c r="L15" s="62" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="44" customFormat="1" ht="30" customHeight="1">
@@ -6898,7 +6898,7 @@
       <c r="D16" s="60"/>
       <c r="E16" s="61"/>
       <c r="F16" s="51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G16" s="52"/>
       <c r="H16" s="52"/>
@@ -6917,7 +6917,7 @@
       <c r="E17" s="63"/>
       <c r="F17" s="56"/>
       <c r="G17" s="56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>35</v>
@@ -6929,41 +6929,41 @@
         <v>37</v>
       </c>
       <c r="K17" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" s="56" t="s">
         <v>148</v>
-      </c>
-      <c r="L17" s="56" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="44" customFormat="1">
       <c r="A18" s="47"/>
       <c r="B18" s="48"/>
       <c r="C18" s="48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="63"/>
-      <c r="F18" s="118" t="s">
-        <v>151</v>
-      </c>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="120"/>
+      <c r="F18" s="119" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="121"/>
     </row>
     <row r="19" spans="1:12" s="44" customFormat="1" ht="27">
       <c r="A19" s="47"/>
       <c r="B19" s="48"/>
       <c r="C19" s="48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="63"/>
       <c r="F19" s="56"/>
       <c r="G19" s="56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H19" s="49" t="s">
         <v>35</v>
@@ -6975,41 +6975,41 @@
         <v>37</v>
       </c>
       <c r="K19" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="L19" s="56" t="s">
         <v>154</v>
-      </c>
-      <c r="L19" s="56" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="44" customFormat="1">
       <c r="A20" s="47"/>
       <c r="B20" s="48"/>
       <c r="C20" s="48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D20" s="49"/>
       <c r="E20" s="63"/>
-      <c r="F20" s="121" t="s">
-        <v>157</v>
-      </c>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="123"/>
+      <c r="F20" s="122" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="124"/>
     </row>
     <row r="21" spans="1:12" s="44" customFormat="1">
       <c r="A21" s="47"/>
       <c r="B21" s="48"/>
       <c r="C21" s="48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="63"/>
       <c r="F21" s="56"/>
       <c r="G21" s="56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H21" s="49" t="s">
         <v>35</v>
@@ -7021,10 +7021,10 @@
         <v>37</v>
       </c>
       <c r="K21" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="L21" s="56" t="s">
         <v>160</v>
-      </c>
-      <c r="L21" s="56" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="44" customFormat="1">
@@ -7047,7 +7047,7 @@
       <c r="C23" s="100"/>
       <c r="D23" s="101"/>
       <c r="E23" s="104" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F23" s="102"/>
       <c r="G23" s="102"/>
@@ -7061,12 +7061,12 @@
       <c r="A24" s="47"/>
       <c r="B24" s="48"/>
       <c r="C24" s="49" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D24" s="60"/>
       <c r="E24" s="61"/>
       <c r="F24" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G24" s="52"/>
       <c r="H24" s="52"/>
@@ -7079,13 +7079,13 @@
       <c r="A25" s="47"/>
       <c r="B25" s="48"/>
       <c r="C25" s="49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="56"/>
       <c r="F25" s="62"/>
       <c r="G25" s="62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H25" s="49" t="s">
         <v>35</v>
@@ -7097,22 +7097,22 @@
         <v>37</v>
       </c>
       <c r="K25" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="L25" s="62" t="s">
         <v>144</v>
-      </c>
-      <c r="L25" s="62" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="44" customFormat="1">
       <c r="A26" s="47"/>
       <c r="B26" s="48"/>
       <c r="C26" s="49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D26" s="60"/>
       <c r="E26" s="61"/>
       <c r="F26" s="51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G26" s="52"/>
       <c r="H26" s="52"/>
@@ -7125,13 +7125,13 @@
       <c r="A27" s="47"/>
       <c r="B27" s="48"/>
       <c r="C27" s="48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D27" s="49"/>
       <c r="E27" s="63"/>
       <c r="F27" s="56"/>
       <c r="G27" s="56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H27" s="49" t="s">
         <v>35</v>
@@ -7143,41 +7143,41 @@
         <v>37</v>
       </c>
       <c r="K27" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="L27" s="56" t="s">
         <v>148</v>
-      </c>
-      <c r="L27" s="56" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="44" customFormat="1">
       <c r="A28" s="47"/>
       <c r="B28" s="48"/>
       <c r="C28" s="48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D28" s="49"/>
       <c r="E28" s="63"/>
-      <c r="F28" s="118" t="s">
-        <v>151</v>
-      </c>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="119"/>
-      <c r="K28" s="119"/>
-      <c r="L28" s="120"/>
+      <c r="F28" s="119" t="s">
+        <v>150</v>
+      </c>
+      <c r="G28" s="120"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="120"/>
+      <c r="K28" s="120"/>
+      <c r="L28" s="121"/>
     </row>
     <row r="29" spans="1:12" s="44" customFormat="1" ht="27">
       <c r="A29" s="47"/>
       <c r="B29" s="48"/>
       <c r="C29" s="48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D29" s="49"/>
       <c r="E29" s="63"/>
       <c r="F29" s="56"/>
       <c r="G29" s="56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H29" s="49" t="s">
         <v>35</v>
@@ -7189,41 +7189,41 @@
         <v>37</v>
       </c>
       <c r="K29" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="L29" s="56" t="s">
         <v>154</v>
-      </c>
-      <c r="L29" s="56" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="44" customFormat="1">
       <c r="A30" s="47"/>
       <c r="B30" s="48"/>
       <c r="C30" s="48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D30" s="49"/>
       <c r="E30" s="63"/>
-      <c r="F30" s="121" t="s">
-        <v>157</v>
-      </c>
-      <c r="G30" s="122"/>
-      <c r="H30" s="122"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="122"/>
-      <c r="K30" s="122"/>
-      <c r="L30" s="123"/>
+      <c r="F30" s="122" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="123"/>
+      <c r="L30" s="124"/>
     </row>
     <row r="31" spans="1:12" s="44" customFormat="1">
       <c r="A31" s="47"/>
       <c r="B31" s="48"/>
       <c r="C31" s="48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D31" s="49"/>
       <c r="E31" s="63"/>
       <c r="F31" s="56"/>
       <c r="G31" s="56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H31" s="49" t="s">
         <v>35</v>
@@ -7235,10 +7235,10 @@
         <v>37</v>
       </c>
       <c r="K31" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="L31" s="56" t="s">
         <v>160</v>
-      </c>
-      <c r="L31" s="56" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="44" customFormat="1">
@@ -8287,11 +8287,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="16">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
     <mergeCell ref="F18:L18"/>
     <mergeCell ref="F20:L20"/>
     <mergeCell ref="F28:L28"/>
@@ -8303,6 +8298,11 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I89 I58 I86 I83 I77 I92">
@@ -8331,7 +8331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
@@ -8339,7 +8339,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" s="79" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
